--- a/Paper_AD/Tables.xlsx
+++ b/Paper_AD/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtame\Documents\GitHub\SurvivalTadpole\Paper_AD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A643322-7D72-496D-AA34-EED02BBAA1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A23C1E-193D-4483-A3DA-F1D3F37007F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{45BD6E78-5C2B-4AE6-A9C1-23DC9F54AA53}"/>
   </bookViews>
@@ -1374,13 +1374,13 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3298,14 +3298,14 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
     </row>
     <row r="43" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
@@ -6056,13 +6056,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -6104,13 +6104,13 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
     </row>
     <row r="27" spans="1:21" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -6152,13 +6152,13 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
     </row>
     <row r="31" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -6200,13 +6200,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
     </row>
     <row r="35" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
@@ -6248,13 +6248,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
     </row>
     <row r="39" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
@@ -6296,13 +6296,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
     </row>
     <row r="43" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
@@ -6356,7 +6356,7 @@
   <dimension ref="A2:T50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6542,7 +6542,7 @@
         <v>129</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="45"/>
+      <c r="C33" s="43"/>
       <c r="G33" s="28" t="s">
         <v>47</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>131</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="45"/>
+      <c r="C36" s="43"/>
       <c r="G36" s="12" t="s">
         <v>47</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>130</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="45"/>
+      <c r="C39" s="43"/>
       <c r="G39" s="28" t="s">
         <v>47</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>132</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="45"/>
+      <c r="C42" s="43"/>
       <c r="G42" s="28" t="s">
         <v>47</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>133</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="45"/>
+      <c r="C45" s="43"/>
       <c r="G45" s="28" t="s">
         <v>47</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>134</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="45"/>
+      <c r="C48" s="43"/>
       <c r="G48" s="28" t="s">
         <v>47</v>
       </c>

--- a/Paper_AD/Tables.xlsx
+++ b/Paper_AD/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtame\Documents\GitHub\SurvivalTadpole\Paper_AD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A23C1E-193D-4483-A3DA-F1D3F37007F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBDD5A4-6F72-4948-9C63-F77C21B1D191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{45BD6E78-5C2B-4AE6-A9C1-23DC9F54AA53}"/>
+    <workbookView xWindow="2295" yWindow="240" windowWidth="20565" windowHeight="15420" activeTab="2" xr2:uid="{45BD6E78-5C2B-4AE6-A9C1-23DC9F54AA53}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -3653,8 +3653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9EF9F6-1F13-4CD9-A8C0-9476A629763A}">
   <dimension ref="A2:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5515,7 +5515,7 @@
   <dimension ref="A3:Z44"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6355,8 +6355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8519C2FF-E24B-4C19-B12A-10B28446A7B8}">
   <dimension ref="A2:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
